--- a/interface_project_for_changling/test_case_file.xlsx
+++ b/interface_project_for_changling/test_case_file.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>api_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,13 +67,30 @@
   <si>
     <t>gh</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.6.156/hse/HSE_TICKET_MBCD/cardSave?parentEntityId=&amp;parentFuncCode=&amp;topFuncCode=HSE_TICKET_MBCD&amp;0.6211012111566583&amp;contentType=json&amp;ajax=true&amp;tid=2000000001003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盲板管理-添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{\"tableName\":\"hse_ticket_mbcd\",\"columnValues\":null,\"dataStatus\":0,\"ver\":1,\"created_by\":null,\"created_dt\":\"2020-07-01 18:02:35\",\"updated_by\":null,\"updated_dt\":\"2020-07-01 18:02:35\",\"df\":\"0\",\"tenantid\":2000000001003,\"ts\":null,\"blind_type\":\"flat\",\"workstatus\":\"jia\",\"normalproductionstatus\":\"chou\",\"commenceperiodstatus\":\"jia\",\"downmaintenancestatus\":\"jia\",\"mbcdnumber\":\"ç²æ¿ç¼å·ç²æ¿ç¼å·\",\"territorialunitid\":2000000005066,\"territorialunitname\":\"ç¼æ²¹ä¸é¨\",\"territorialunitcode\":\"000000010300\",\"device\":\"è£+ç½®åç§°\",\"worksite\":\"å®è£+/æé¤ä½ç½®\",\"blindplate_material\":\"ç²æ¿æè´¨\",\"pressure\":\"å·¥ä½åå\",\"temperature\":\"å·¥ä½æ¸©åº¦\",\"medium\":\"å·¥ä½ä»è´¨\",\"pidnumber\":\"å¾å·\",\"blindattaches\":\"[{\\\"dfs_file_name\\\":\\\"å¾®ä¿¡å¾ç_20200617160345.jpg\\\",\\\"tableName\\\":\\\"sy_attach_dfs\\\",\\\"dfs_id\\\":2000000012452,\\\"dataStatus\\\":0,\\\"ver\\\":1,\\\"created_by\\\":null,\\\"created_dt\\\":\\\"2020-07-01 18:03:35\\\",\\\"updated_by\\\":null,\\\"updated_dt\\\":\\\"2020-07-01 18:03:35\\\",\\\"df\\\":0,\\\"tenantid\\\":2000000001003,\\\"ts\\\":null,\\\"dfs_file_group_name\\\":\\\"group1\\\",\\\"dfs_file_key\\\":\\\"M00/00/28/wKgGnF78X3eAPyASAAExXFSqfEE865.jpg\\\",\\\"dfs_file_size\\\":78172,\\\"dfs_preview_url\\\":\\\"http://192.168.6.156:8888//group1//M00/00/28/wKgGnF78X3eAPyASAAExXFSqfEE865.jpg\\\",\\\"dfs_thumbnail_url\\\":\\\"http://192.168.6.156:8888//group1//M00/00/28/wKgGnF78X3eAWOeLAAIKVnDfoY0767.png\\\"}]\",\"design_pressure\":\"è®¾è®¡åå\",\"dn\":\"20\"}"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +104,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA31515"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,10 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,4 +578,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.125" customWidth="1"/>
+    <col min="6" max="6" width="83.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="318" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>